--- a/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_example_hsieh.xlsx
+++ b/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_example_hsieh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnahh\Desktop\GW_Modeling\homework-hsiehdf\Working\HW2_BoxModel_manual\starter_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D7FB47-EBD3-485C-83D2-5F0D489ADB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BD817D-602E-4ED4-B60E-DA2429024699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="7" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
   </bookViews>
   <sheets>
     <sheet name="bcf_1_edited" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
   <si>
     <t xml:space="preserve">              HEAD IN LAYER   1 AT END OF TIME STEP   1 IN STRESS PERIOD    1</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>........................................................................................................................</t>
+  </si>
+  <si>
+    <t>dH/dz = 0 flow only in 1 direction</t>
   </si>
 </sst>
 </file>
@@ -7733,7 +7736,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>q - distance along streamline - homogenous</a:t>
+              <a:t>q </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Calculated using Darcy's Law. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Heterogeneous (high K)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7979,6 +7990,587 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-736B-C44C-9C67-2C401ABA1CCF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="133578607"/>
+        <c:axId val="134214047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="133578607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance along streamline (m) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134214047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134214047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>q (m/day)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133578607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>head - distance along streamline - heterogeneous low k</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>q_1_complex!$C$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>heads_1!$F$4:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14.64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CED-4CF5-972C-24FDA8AE6907}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8111,6 +8703,601 @@
         <c:axId val="134214047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>head</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="133578607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>q  Calculated using harmonic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>- Heterogeneous (high K)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>q_1!$C$2:$Z$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>q_1_complex!$C$3:$Z$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.1999999999999921E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2000000000000099E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1999999999999921E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2000000000000099E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1999999999999921E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.100000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1999999999999921E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1999999999999921E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2000000000000099E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1899999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1818181818181825E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1999999999999921E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2000000000000099E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1999999999999921E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2000000000000099E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1999999999999921E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1999999999999921E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.100000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1999999999999921E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2000000000000099E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.1999999999999921E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2000000000000099E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1999999999999921E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C8D-4B89-9D34-BD928A9C5928}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="133578607"/>
+        <c:axId val="134214047"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="133578607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance along streamline (m) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="134214047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="134214047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -8150,7 +9337,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>q (m/time)</a:t>
+                  <a:t>q (m/day)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -8183,7 +9370,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8318,6 +9505,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9433,6 +10700,1082 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9544,6 +11887,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400538</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>54807</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9544B698-03E7-4B5C-97C3-F5BC7944F4E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>390088</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57074</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D5413CF-6906-4F47-941B-9334DE79B315}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9851,8 +12270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E986F2-53D6-1C4D-B056-8DFA12526A7B}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -16522,10 +18941,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520DF9AE-552C-DA41-ACC0-54A27029221C}">
-  <dimension ref="A1:AA29"/>
+  <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -18862,100 +21281,100 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.6">
-      <c r="D29">
-        <f>C28-D28</f>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="D31">
+        <f t="shared" ref="D31:AA31" si="4">C28-D28</f>
         <v>0.11999999999999922</v>
       </c>
-      <c r="E29">
-        <f t="shared" ref="E29:AA29" si="4">D28-E28</f>
+      <c r="E31">
+        <f t="shared" si="4"/>
         <v>0.12000000000000099</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <f t="shared" si="4"/>
         <v>0.11999999999999922</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <f t="shared" si="4"/>
         <v>0.12000000000000099</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <f t="shared" si="4"/>
         <v>0.11999999999999922</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <f t="shared" si="4"/>
         <v>0.11000000000000121</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <f t="shared" si="4"/>
         <v>0.11999999999999922</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <f t="shared" si="4"/>
         <v>0.11999999999999922</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <f t="shared" si="4"/>
         <v>0.12000000000000099</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <f t="shared" si="4"/>
         <v>0.66000000000000014</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <f t="shared" si="4"/>
         <v>1.1899999999999995</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <f t="shared" si="4"/>
         <v>0.65000000000000036</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <f t="shared" si="4"/>
         <v>0.11999999999999922</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <f t="shared" si="4"/>
         <v>0.12000000000000099</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <f t="shared" si="4"/>
         <v>0.11999999999999922</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <f t="shared" si="4"/>
         <v>0.12000000000000099</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <f t="shared" si="4"/>
         <v>0.11999999999999922</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <f t="shared" si="4"/>
         <v>0.11999999999999922</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <f t="shared" si="4"/>
         <v>0.11000000000000121</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <f t="shared" si="4"/>
         <v>0.11999999999999922</v>
       </c>
-      <c r="X29">
+      <c r="X31">
         <f t="shared" si="4"/>
         <v>0.12000000000000099</v>
       </c>
-      <c r="Y29">
+      <c r="Y31">
         <f t="shared" si="4"/>
         <v>0.11999999999999922</v>
       </c>
-      <c r="Z29">
+      <c r="Z31">
         <f t="shared" si="4"/>
         <v>0.12000000000000099</v>
       </c>
-      <c r="AA29">
+      <c r="AA31">
         <f t="shared" si="4"/>
         <v>0.11999999999999922</v>
       </c>
@@ -18967,10 +21386,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B842760C-4A3D-7C48-B8D8-B3990F9D725F}">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -21629,6 +24048,107 @@
         <f>bcf_1_edited!Y27*(heads_1!Z28-heads_1!AA28)/100</f>
         <v>1.1999999999999921E-3</v>
       </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.6">
+      <c r="C29" s="1">
+        <f>SUM(C3:C27)</f>
+        <v>2.9999999999999812E-2</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" ref="D29:Z29" si="2">SUM(D3:D27)</f>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999812E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999812E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7500000000000292E-2</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999812E-2</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999812E-2</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="2"/>
+        <v>1.6500000000000011E-2</v>
+      </c>
+      <c r="M29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9749999999999995E-2</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="2"/>
+        <v>0.16250000000000012</v>
+      </c>
+      <c r="O29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999812E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999812E-2</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="S29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999812E-2</v>
+      </c>
+      <c r="T29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999812E-2</v>
+      </c>
+      <c r="U29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7500000000000292E-2</v>
+      </c>
+      <c r="V29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999812E-2</v>
+      </c>
+      <c r="W29" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="X29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999812E-2</v>
+      </c>
+      <c r="Y29" s="1">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="Z29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9999999999999812E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.6">
+      <c r="H31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21639,8 +24159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B181C23-F43C-6848-921C-DFC38BE5DD7E}">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84765625" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -24312,10 +26832,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B7FEA8-679C-6245-B574-9BBD7BB6F993}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="K25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -24325,6 +26845,11 @@
         <v>39</v>
       </c>
     </row>
+    <row r="69" spans="11:11" x14ac:dyDescent="0.6">
+      <c r="K69" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_example_hsieh.xlsx
+++ b/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_example_hsieh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnahh\Desktop\GW_Modeling\homework-hsiehdf\Working\HW2_BoxModel_manual\starter_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BD817D-602E-4ED4-B60E-DA2429024699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389832D7-2F15-411C-B3F6-9F7BF59DAFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="4" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
   </bookViews>
   <sheets>
     <sheet name="bcf_1_edited" sheetId="3" r:id="rId1"/>
@@ -12270,7 +12270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E986F2-53D6-1C4D-B056-8DFA12526A7B}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -18941,10 +18941,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520DF9AE-552C-DA41-ACC0-54A27029221C}">
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -18952,12 +18952,12 @@
     <col min="3" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="5" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:28" s="5" customFormat="1" ht="18.3" x14ac:dyDescent="0.7">
       <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.6">
       <c r="C2">
         <v>1</v>
       </c>
@@ -19058,7 +19058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.6">
       <c r="C3">
         <v>0</v>
       </c>
@@ -19159,7 +19159,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -19241,8 +19241,12 @@
       <c r="AA4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB4">
+        <f>SUM(C4:AA4)</f>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -19325,14 +19329,18 @@
       <c r="AA5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB5">
+        <f t="shared" ref="AB5:AB28" si="2">SUM(C5:AA5)</f>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A6">
         <f>A5+1</f>
         <v>3</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B28" si="2">B5+100</f>
+        <f t="shared" ref="B6:B28" si="3">B5+100</f>
         <v>200</v>
       </c>
       <c r="C6">
@@ -19410,14 +19418,18 @@
       <c r="AA6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB6">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A7">
-        <f t="shared" ref="A7:A28" si="3">A6+1</f>
+        <f t="shared" ref="A7:A28" si="4">A6+1</f>
         <v>4</v>
       </c>
       <c r="B7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="C7">
@@ -19495,14 +19507,18 @@
       <c r="AA7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB7">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A8">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="C8">
@@ -19580,14 +19596,18 @@
       <c r="AA8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB8">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A9">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="C9">
@@ -19665,14 +19685,18 @@
       <c r="AA9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB9">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A10">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="B10">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="C10">
@@ -19750,14 +19774,18 @@
       <c r="AA10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB10">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A11">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="B11">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="C11">
@@ -19835,14 +19863,18 @@
       <c r="AA11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB11">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A12">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="B12">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="C12">
@@ -19920,14 +19952,18 @@
       <c r="AA12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB12">
+        <f>SUM(C12:AA12)</f>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A13">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="C13">
@@ -20005,14 +20041,18 @@
       <c r="AA13">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB13">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A14">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="C14">
@@ -20090,14 +20130,18 @@
       <c r="AA14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB14">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A15">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="B15">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="2"/>
         <v>1100</v>
       </c>
       <c r="C15">
@@ -20175,14 +20219,18 @@
       <c r="AA15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB15">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A16">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="B16">
         <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="C16">
@@ -20260,14 +20308,18 @@
       <c r="AA16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB16">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A17">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="B17">
         <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="2"/>
         <v>1300</v>
       </c>
       <c r="C17">
@@ -20345,14 +20397,18 @@
       <c r="AA17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB17">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A18">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="B18">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="2"/>
         <v>1400</v>
       </c>
       <c r="C18">
@@ -20430,14 +20486,18 @@
       <c r="AA18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB18">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A19">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="B19">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
       <c r="C19">
@@ -20515,14 +20575,18 @@
       <c r="AA19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB19">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A20">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="B20">
         <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
       <c r="C20">
@@ -20600,14 +20664,18 @@
       <c r="AA20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB20">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A21">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="B21">
         <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="2"/>
         <v>1700</v>
       </c>
       <c r="C21">
@@ -20685,14 +20753,18 @@
       <c r="AA21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB21">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A22">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="B22">
         <f t="shared" si="3"/>
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="2"/>
         <v>1800</v>
       </c>
       <c r="C22">
@@ -20770,14 +20842,18 @@
       <c r="AA22">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB22">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A23">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B23">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="2"/>
         <v>1900</v>
       </c>
       <c r="C23">
@@ -20855,14 +20931,18 @@
       <c r="AA23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB23">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A24">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="B24">
         <f t="shared" si="3"/>
-        <v>21</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="2"/>
         <v>2000</v>
       </c>
       <c r="C24">
@@ -20940,14 +21020,18 @@
       <c r="AA24">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB24">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A25">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="B25">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="2"/>
         <v>2100</v>
       </c>
       <c r="C25">
@@ -21025,14 +21109,18 @@
       <c r="AA25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB25">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A26">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="B26">
         <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="2"/>
         <v>2200</v>
       </c>
       <c r="C26">
@@ -21110,14 +21198,18 @@
       <c r="AA26">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB26">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A27">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="B27">
         <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="2"/>
         <v>2300</v>
       </c>
       <c r="C27">
@@ -21195,14 +21287,18 @@
       <c r="AA27">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB27">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.6">
       <c r="A28">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="B28">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
       <c r="C28">
@@ -21280,102 +21376,106 @@
       <c r="AA28">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.6">
+      <c r="AB28">
+        <f t="shared" si="2"/>
+        <v>309.28000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.6">
       <c r="D31">
-        <f t="shared" ref="D31:AA31" si="4">C28-D28</f>
+        <f t="shared" ref="D31:AA31" si="5">C28-D28</f>
         <v>0.11999999999999922</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12000000000000099</v>
       </c>
       <c r="F31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12000000000000099</v>
       </c>
       <c r="H31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="I31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11000000000000121</v>
       </c>
       <c r="J31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="K31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="L31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12000000000000099</v>
       </c>
       <c r="M31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66000000000000014</v>
       </c>
       <c r="N31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1899999999999995</v>
       </c>
       <c r="O31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65000000000000036</v>
       </c>
       <c r="P31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12000000000000099</v>
       </c>
       <c r="R31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="S31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12000000000000099</v>
       </c>
       <c r="T31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="U31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="V31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11000000000000121</v>
       </c>
       <c r="W31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="X31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12000000000000099</v>
       </c>
       <c r="Y31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11999999999999922</v>
       </c>
       <c r="Z31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.12000000000000099</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.11999999999999922</v>
       </c>
     </row>
